--- a/src/kr/bit/file/myExcelPractice.xlsx
+++ b/src/kr/bit/file/myExcelPractice.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
   <si>
     <t>책제목</t>
   </si>
@@ -50,6 +50,15 @@
     <t>토네이도</t>
   </si>
   <si>
+    <t>어록으로 본 이낙연</t>
+  </si>
+  <si>
+    <t>이제이</t>
+  </si>
+  <si>
+    <t>삼인</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
@@ -57,6 +66,18 @@
   </si>
   <si>
     <t>10453686.jpg</t>
+  </si>
+  <si>
+    <t>9791158511746</t>
+  </si>
+  <si>
+    <t>16283016.jpg</t>
+  </si>
+  <si>
+    <t>9788964361740</t>
+  </si>
+  <si>
+    <t>16301149.jpg</t>
   </si>
 </sst>
 </file>
@@ -139,12 +160,88 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="1333500" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="1333500" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -155,31 +252,77 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="B1"/>
-      <c r="C1"/>
-      <c r="D1"/>
-      <c r="E1"/>
-      <c r="F1"/>
     </row>
     <row r="2" ht="120.0" customHeight="true">
       <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2"/>
+    </row>
+    <row r="3" ht="120.0" customHeight="true">
+      <c r="A3" t="s">
         <v>9</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
         <v>10</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C3" t="s">
         <v>11</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3"/>
+    </row>
+    <row r="4" ht="120.0" customHeight="true">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
         <v>13</v>
       </c>
-      <c r="E2" t="s">
+      <c r="C4" t="s">
         <v>14</v>
       </c>
-      <c r="F2"/>
+      <c r="D4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/src/kr/bit/file/myExcelPractice.xlsx
+++ b/src/kr/bit/file/myExcelPractice.xlsx
@@ -50,13 +50,13 @@
     <t>토네이도</t>
   </si>
   <si>
-    <t>어록으로 본 이낙연</t>
-  </si>
-  <si>
-    <t>이제이</t>
-  </si>
-  <si>
-    <t>삼인</t>
+    <t>생각하지 않는 사람들</t>
+  </si>
+  <si>
+    <t>니콜라스 카</t>
+  </si>
+  <si>
+    <t>청림출판</t>
   </si>
   <si>
     <t/>
@@ -74,10 +74,10 @@
     <t>16283016.jpg</t>
   </si>
   <si>
-    <t>9788964361740</t>
-  </si>
-  <si>
-    <t>16301149.jpg</t>
+    <t>9788935213269</t>
+  </si>
+  <si>
+    <t>16710543.jpg</t>
   </si>
 </sst>
 </file>
